--- a/三下/演算法/A6409001_邱郁涵_HW06.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW06.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009E598-2908-467C-AE90-465AC48403A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F66BDB-9C6E-4426-AD37-933AD4BD5B9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t xml:space="preserve">A= </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,38 @@
   </si>
   <si>
     <t>a&lt;b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a&lt;c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c&lt;b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c&lt;a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,15 +359,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,6 +990,556 @@
         <a:xfrm>
           <a:off x="609600" y="4057650"/>
           <a:ext cx="4858428" cy="1019317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>354725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線接點 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC768B35-6A2D-4C25-BB16-192C461DB97E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2798380" y="6411310"/>
+          <a:ext cx="558361" cy="197069"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>310056</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>191814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257503</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>191814</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線接點 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED08E532-083D-4958-8302-0AB65077FF11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2142797" y="6800193"/>
+          <a:ext cx="558361" cy="197069"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252248</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線接點 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639F8640-379C-4209-BD99-6778BC93EED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1526628" y="7202214"/>
+          <a:ext cx="558361" cy="197069"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236483</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223345</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線接點 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7166ACA5-4D3A-40F7-920B-C4B552E5B1C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2069224" y="7206155"/>
+          <a:ext cx="597776" cy="197069"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>244365</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282465</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線接點 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051141F3-3571-4363-96A3-A2A265698282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2688020" y="6819899"/>
+          <a:ext cx="649014" cy="189187"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275896</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線接點 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54A19A6-2839-4801-A42E-67B42F25815A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3359368" y="6413937"/>
+          <a:ext cx="1192925" cy="201011"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>308741</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>193128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311369</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線接點 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6863C01B-B746-44D2-B0C9-B7D4B5524A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4585138" y="6801507"/>
+          <a:ext cx="2628" cy="207579"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298230</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289035</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線接點 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F06E8F-8C25-4362-8196-3E6C70667B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4574627" y="6814644"/>
+          <a:ext cx="1212632" cy="181304"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306114</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>10510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線接點 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB131D4-0B35-4140-B992-B593597B6D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5804338" y="7210096"/>
+          <a:ext cx="646386" cy="193128"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>348156</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>321880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線接點 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FEBE0D-0002-487A-ACDF-50894AD8EA68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5235466" y="7225862"/>
+          <a:ext cx="584638" cy="170793"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>496050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="圖片 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9E78D6-BA9A-41A6-B848-EC0F696EF876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8296275"/>
+          <a:ext cx="5372850" cy="1848108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1214,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC77D81E-61A8-4357-B56A-BFF8A42B193D}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1415,8 +2015,85 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/三下/演算法/A6409001_邱郁涵_HW06.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW06.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F66BDB-9C6E-4426-AD37-933AD4BD5B9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A36316A-D250-4EC4-8AD6-DCF017B0A466}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t xml:space="preserve">A= </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,14 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤拉路線：邊的遍歷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢彌爾頓路線：點的遍歷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -387,6 +395,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1814,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC77D81E-61A8-4357-B56A-BFF8A42B193D}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2095,6 +2105,22 @@
       <c r="A41" s="1">
         <v>3</v>
       </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/三下/演算法/A6409001_邱郁涵_HW06.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW06.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A36316A-D250-4EC4-8AD6-DCF017B0A466}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11506F40-0A24-4B7C-B003-0AAFB0091BDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t xml:space="preserve">A= </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,50 @@
   </si>
   <si>
     <t>漢彌爾頓路線：點的遍歷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a. Graph(a) has a Hamiltonian circuit (a-b-d-c-a) but no Eulerian circuit because it has vertices of odd degree (a and c).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">b. Graph(b) has an Eulerian circuit (a-b-c-d-b-e-a) but no Hamiltonian circuit. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    If a Hamiltonian circuit existed, we could consider a as its starting vertex without loss of generality.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    But then it would have to visit b at least twice: once to reach c and  the other to return to a.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +403,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -382,11 +426,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -395,8 +476,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1556,6 +1651,956 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線接點 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7726-9B1D-4FD6-BEC0-8E29BBA9CEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="11410950"/>
+          <a:ext cx="590550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線接點 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCCC247-B666-4838-B53D-CE69711AEE84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="11830050"/>
+          <a:ext cx="590550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線接點 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8596852-1582-4980-A151-B504E11E2B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914400" y="11487150"/>
+          <a:ext cx="1" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線接點 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0D86CC-8B9A-414D-80E2-4254196BEDC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2133600" y="11496675"/>
+          <a:ext cx="1" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線接點 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DE4AAF-DB2A-4A2A-B0C0-4344C809AA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="11391900"/>
+          <a:ext cx="590550" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10305</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>67078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="圖片 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF7C729-53F2-4868-A5B4-84EFF2A4C47D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="16878300"/>
+          <a:ext cx="5591955" cy="2886478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>553208</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>9638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="圖片 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C33F2B-FC44-44C5-8B97-A707C2BBB6EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20097750"/>
+          <a:ext cx="5430008" cy="809738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219701</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>143314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="圖片 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15168C37-CA98-487B-AF77-64F012BB7EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20897850"/>
+          <a:ext cx="4486901" cy="3143689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57668</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>190862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="圖片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00C0E6B-6F7B-4524-86D8-71D42CC17FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24498300"/>
+          <a:ext cx="3715268" cy="2591162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438637</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>47995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="圖片 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363551D-464B-4434-9262-C9056E0B30D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="27298650"/>
+          <a:ext cx="3486637" cy="2648320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495709</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>19220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="圖片 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7486E9-7B4E-4475-9FCE-7F913B017E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30299025"/>
+          <a:ext cx="2934109" cy="1219370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219871</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>95738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="圖片 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E97123-BB19-48CD-BDA2-BB72CEBD5F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="31499175"/>
+          <a:ext cx="5706271" cy="3496163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581787</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>48134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="圖片 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19840D48-D091-44F8-9F1D-2A5972C9A76B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="35099625"/>
+          <a:ext cx="5458587" cy="3648584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線接點 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914401" y="12506325"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線接點 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2152651" y="12506325"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線接點 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="12487275"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線接點 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F8263-5AA5-425B-9AAF-364BDC8D4D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1504950" y="12506325"/>
+          <a:ext cx="657225" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線接點 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="923925" y="12915900"/>
+          <a:ext cx="581025" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線接點 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1504950" y="12906375"/>
+          <a:ext cx="657225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1824,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC77D81E-61A8-4357-B56A-BFF8A42B193D}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2107,22 +3152,89 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B54:D54"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/三下/演算法/A6409001_邱郁涵_HW06.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW06.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11506F40-0A24-4B7C-B003-0AAFB0091BDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A49A9-30A2-4A63-BE2E-F646D0DDC994}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8835" yWindow="3840" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -480,6 +480,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,9 +490,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2871,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC77D81E-61A8-4357-B56A-BFF8A42B193D}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3152,20 +3152,20 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
@@ -3189,7 +3189,7 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>33</v>
       </c>
     </row>

--- a/三下/演算法/A6409001_邱郁涵_HW06.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW06.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A49A9-30A2-4A63-BE2E-F646D0DDC994}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-8835" yWindow="3840" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t xml:space="preserve">A= </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,11 +342,19 @@
     <t xml:space="preserve">    But then it would have to visit b at least twice: once to reach c and  the other to return to a.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>(c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.Graph (c) has both a Hamiltonian circuit and an Eulerian circuit(a-b-c-a).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,6 +497,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,7 +531,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1905,15 +1915,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>10305</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>67078</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1955,15 +1965,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>553208</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>9638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2005,15 +2015,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>219701</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>143314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2055,15 +2065,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>57668</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>190862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2105,15 +2115,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>438637</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>47995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2155,15 +2165,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>495709</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>19220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2205,15 +2215,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>219871</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>95738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2255,15 +2265,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>581787</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>48134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2581,6 +2591,156 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1504950" y="12906375"/>
           <a:ext cx="657225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="12487275"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線接點 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1495425" y="14106525"/>
+          <a:ext cx="628650" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7726-9B1D-4FD6-BEC0-8E29BBA9CEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="14001750"/>
+          <a:ext cx="619125" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2868,11 +3028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC77D81E-61A8-4357-B56A-BFF8A42B193D}">
-  <dimension ref="A1:R67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3217,7 +3377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>32</v>
       </c>
@@ -3225,9 +3385,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C67" s="6" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/三下/演算法/A6409001_邱郁涵_HW06.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t xml:space="preserve">A= </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,7 +347,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c.Graph (c) has both a Hamiltonian circuit and an Eulerian circuit(a-b-c-a).</t>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c. Graph (c) has both a Hamiltonian circuit and an Eulerian circuit(a-b-c-a).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d. Graph(d) has a cycle that includes all the vertices (a-b-c-f-d-b-e-a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   It has neither a Haniltonian circuit (by the same reason graph(b)) nor an Eulerian circuit (because vertics c and d have odd degrees.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,6 +506,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,9 +516,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1915,23 +1931,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10305</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>67078</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>553208</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>9638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="圖片 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF7C729-53F2-4868-A5B4-84EFF2A4C47D}"/>
+        <xdr:cNvPr id="37" name="圖片 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C33F2B-FC44-44C5-8B97-A707C2BBB6EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,8 +1969,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="16878300"/>
-          <a:ext cx="5591955" cy="2886478"/>
+          <a:off x="609600" y="20097750"/>
+          <a:ext cx="5430008" cy="809738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,21 +1983,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>553208</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>9638</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219701</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>143314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="圖片 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C33F2B-FC44-44C5-8B97-A707C2BBB6EA}"/>
+        <xdr:cNvPr id="39" name="圖片 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15168C37-CA98-487B-AF77-64F012BB7EB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,8 +2019,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="20097750"/>
-          <a:ext cx="5430008" cy="809738"/>
+          <a:off x="609600" y="20897850"/>
+          <a:ext cx="4486901" cy="3143689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2017,21 +2033,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219701</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>143314</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57668</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>190862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="圖片 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15168C37-CA98-487B-AF77-64F012BB7EB7}"/>
+        <xdr:cNvPr id="41" name="圖片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00C0E6B-6F7B-4524-86D8-71D42CC17FF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,8 +2069,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="20897850"/>
-          <a:ext cx="4486901" cy="3143689"/>
+          <a:off x="609600" y="24498300"/>
+          <a:ext cx="3715268" cy="2591162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2067,21 +2083,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57668</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>190862</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438637</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>47995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="圖片 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00C0E6B-6F7B-4524-86D8-71D42CC17FF7}"/>
+        <xdr:cNvPr id="43" name="圖片 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363551D-464B-4434-9262-C9056E0B30D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,8 +2119,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="24498300"/>
-          <a:ext cx="3715268" cy="2591162"/>
+          <a:off x="609600" y="27298650"/>
+          <a:ext cx="3486637" cy="2648320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2117,21 +2133,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438637</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>47995</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495709</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>19220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="圖片 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363551D-464B-4434-9262-C9056E0B30D9}"/>
+        <xdr:cNvPr id="45" name="圖片 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7486E9-7B4E-4475-9FCE-7F913B017E4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,8 +2169,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="27298650"/>
-          <a:ext cx="3486637" cy="2648320"/>
+          <a:off x="609600" y="30299025"/>
+          <a:ext cx="2934109" cy="1219370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2167,21 +2183,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495709</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>19220</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219871</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>95738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="圖片 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7486E9-7B4E-4475-9FCE-7F913B017E4D}"/>
+        <xdr:cNvPr id="47" name="圖片 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E97123-BB19-48CD-BDA2-BB72CEBD5F9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,8 +2219,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="30299025"/>
-          <a:ext cx="2934109" cy="1219370"/>
+          <a:off x="609600" y="31499175"/>
+          <a:ext cx="5706271" cy="3496163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2217,21 +2233,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219871</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>95738</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581787</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>48134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="圖片 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E97123-BB19-48CD-BDA2-BB72CEBD5F9E}"/>
+        <xdr:cNvPr id="49" name="圖片 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19840D48-D091-44F8-9F1D-2A5972C9A76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,8 +2269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="31499175"/>
-          <a:ext cx="5706271" cy="3496163"/>
+          <a:off x="609600" y="35099625"/>
+          <a:ext cx="5458587" cy="3648584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2263,25 +2279,875 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線接點 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914401" y="12506325"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線接點 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2152651" y="12506325"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線接點 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="12487275"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線接點 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F8263-5AA5-425B-9AAF-364BDC8D4D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1504950" y="12506325"/>
+          <a:ext cx="657225" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線接點 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="923925" y="12915900"/>
+          <a:ext cx="581025" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線接點 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1504950" y="12906375"/>
+          <a:ext cx="657225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="12487275"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線接點 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1495425" y="14106525"/>
+          <a:ext cx="628650" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7726-9B1D-4FD6-BEC0-8E29BBA9CEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="14001750"/>
+          <a:ext cx="619125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線接點 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="14087475"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線接點 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="923925" y="12915900"/>
+          <a:ext cx="581025" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線接點 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1504950" y="15306675"/>
+          <a:ext cx="628650" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線接點 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="923926" y="15316200"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線接點 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2124076" y="15297150"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線接點 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1495425" y="15697200"/>
+          <a:ext cx="657225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線接點 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="15297150"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線接點 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2428875" y="15697200"/>
+          <a:ext cx="609600" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>581787</xdr:colOff>
-      <xdr:row>309</xdr:row>
-      <xdr:rowOff>48134</xdr:rowOff>
+      <xdr:colOff>105555</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>86128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="圖片 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19840D48-D091-44F8-9F1D-2A5972C9A76B}"/>
+        <xdr:cNvPr id="63" name="圖片 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF7C729-53F2-4868-A5B4-84EFF2A4C47D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,464 +3169,14 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="35099625"/>
-          <a:ext cx="5458587" cy="3648584"/>
+          <a:off x="609600" y="16897350"/>
+          <a:ext cx="5591955" cy="2886478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線接點 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="914401" y="12506325"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線接點 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2152651" y="12506325"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線接點 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="12487275"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線接點 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F8263-5AA5-425B-9AAF-364BDC8D4D3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1504950" y="12506325"/>
-          <a:ext cx="657225" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線接點 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="923925" y="12915900"/>
-          <a:ext cx="581025" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線接點 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1504950" y="12906375"/>
-          <a:ext cx="657225" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線接點 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="12487275"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線接點 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1495425" y="14106525"/>
-          <a:ext cx="628650" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線接點 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7726-9B1D-4FD6-BEC0-8E29BBA9CEC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1219200" y="14001750"/>
-          <a:ext cx="619125" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3029,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3311,23 +3727,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>27</v>
       </c>
@@ -3335,12 +3751,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F58" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>29</v>
       </c>
@@ -3348,36 +3764,36 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C60" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F63" t="s">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>32</v>
       </c>
@@ -3385,30 +3801,72 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C67" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C72" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="10" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/三下/演算法/A6409001_邱郁涵_HW06.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW06.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t xml:space="preserve">A= </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,12 +366,24 @@
     <t xml:space="preserve">   It has neither a Haniltonian circuit (by the same reason graph(b)) nor an Eulerian circuit (because vertics c and d have odd degrees.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>a, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +424,14 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -490,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -516,6 +536,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1933,21 +1959,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>553208</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>9638</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57668</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>190862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="圖片 36">
+        <xdr:cNvPr id="41" name="圖片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C33F2B-FC44-44C5-8B97-A707C2BBB6EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00C0E6B-6F7B-4524-86D8-71D42CC17FF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,8 +1995,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="20097750"/>
-          <a:ext cx="5430008" cy="809738"/>
+          <a:off x="609600" y="24498300"/>
+          <a:ext cx="3715268" cy="2591162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1983,21 +2009,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219701</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>143314</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438637</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>47995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="圖片 38">
+        <xdr:cNvPr id="43" name="圖片 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15168C37-CA98-487B-AF77-64F012BB7EB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363551D-464B-4434-9262-C9056E0B30D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,8 +2045,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="20897850"/>
-          <a:ext cx="4486901" cy="3143689"/>
+          <a:off x="609600" y="27298650"/>
+          <a:ext cx="3486637" cy="2648320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2033,21 +2059,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57668</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>190862</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495709</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>19220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="圖片 40">
+        <xdr:cNvPr id="45" name="圖片 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00C0E6B-6F7B-4524-86D8-71D42CC17FF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7486E9-7B4E-4475-9FCE-7F913B017E4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,8 +2095,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="24498300"/>
-          <a:ext cx="3715268" cy="2591162"/>
+          <a:off x="609600" y="30299025"/>
+          <a:ext cx="2934109" cy="1219370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2083,21 +2109,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438637</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>47995</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219871</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>95738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="圖片 42">
+        <xdr:cNvPr id="47" name="圖片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363551D-464B-4434-9262-C9056E0B30D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E97123-BB19-48CD-BDA2-BB72CEBD5F9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,8 +2145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="27298650"/>
-          <a:ext cx="3486637" cy="2648320"/>
+          <a:off x="609600" y="31499175"/>
+          <a:ext cx="5706271" cy="3496163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,21 +2159,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495709</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>19220</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581787</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>48134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="圖片 44">
+        <xdr:cNvPr id="49" name="圖片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7486E9-7B4E-4475-9FCE-7F913B017E4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19840D48-D091-44F8-9F1D-2A5972C9A76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,8 +2195,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="30299025"/>
-          <a:ext cx="2934109" cy="1219370"/>
+          <a:off x="609600" y="35099625"/>
+          <a:ext cx="5458587" cy="3648584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2179,25 +2205,875 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線接點 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914401" y="12506325"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線接點 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2152651" y="12506325"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線接點 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="12487275"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線接點 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F8263-5AA5-425B-9AAF-364BDC8D4D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1504950" y="12506325"/>
+          <a:ext cx="657225" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線接點 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="923925" y="12915900"/>
+          <a:ext cx="581025" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線接點 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1504950" y="12906375"/>
+          <a:ext cx="657225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="12487275"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線接點 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1495425" y="14106525"/>
+          <a:ext cx="628650" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7726-9B1D-4FD6-BEC0-8E29BBA9CEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="14001750"/>
+          <a:ext cx="619125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線接點 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="14087475"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線接點 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="923925" y="12915900"/>
+          <a:ext cx="581025" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線接點 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1504950" y="15306675"/>
+          <a:ext cx="628650" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219871</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>95738</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線接點 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="923926" y="15316200"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線接點 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2124076" y="15297150"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線接點 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1495425" y="15697200"/>
+          <a:ext cx="657225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線接點 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="15297150"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線接點 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2428875" y="15697200"/>
+          <a:ext cx="609600" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105555</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>86128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="圖片 46">
+        <xdr:cNvPr id="63" name="圖片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E97123-BB19-48CD-BDA2-BB72CEBD5F9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF7C729-53F2-4868-A5B4-84EFF2A4C47D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,8 +3095,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="31499175"/>
-          <a:ext cx="5706271" cy="3496163"/>
+          <a:off x="609600" y="16897350"/>
+          <a:ext cx="5591955" cy="2886478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2229,25 +3105,1345 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="17268825"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="17259300"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矩形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="17887950"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="17916525"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="18535650"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="矩形 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="19173825"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="矩形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="18526125"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="矩形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="19164300"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="17611725"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矩形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="17621250"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="矩形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="18211800"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="矩形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="17249775"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="矩形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="18211800"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="矩形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="17287875"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="矩形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219700" y="17545050"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="矩形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="17268825"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="矩形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="18430875"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="矩形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="18440400"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="矩形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="17840325"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="矩形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="17849850"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="矩形 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="18154650"/>
+          <a:ext cx="257175" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+            <a:alpha val="52000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581787</xdr:colOff>
-      <xdr:row>309</xdr:row>
-      <xdr:rowOff>48134</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>553208</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="圖片 48">
+        <xdr:cNvPr id="88" name="圖片 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19840D48-D091-44F8-9F1D-2A5972C9A76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C33F2B-FC44-44C5-8B97-A707C2BBB6EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,885 +4465,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="35099625"/>
-          <a:ext cx="5458587" cy="3648584"/>
+          <a:off x="609600" y="21097875"/>
+          <a:ext cx="5430008" cy="809738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線接點 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="914401" y="12506325"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線接點 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2152651" y="12506325"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線接點 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="12487275"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線接點 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F8263-5AA5-425B-9AAF-364BDC8D4D3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1504950" y="12506325"/>
-          <a:ext cx="657225" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線接點 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="923925" y="12915900"/>
-          <a:ext cx="581025" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線接點 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1504950" y="12906375"/>
-          <a:ext cx="657225" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線接點 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="12487275"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線接點 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1495425" y="14106525"/>
-          <a:ext cx="628650" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線接點 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7726-9B1D-4FD6-BEC0-8E29BBA9CEC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1219200" y="14001750"/>
-          <a:ext cx="619125" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線接點 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="14087475"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線接點 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="923925" y="12915900"/>
-          <a:ext cx="581025" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線接點 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1504950" y="15306675"/>
-          <a:ext cx="628650" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線接點 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="923926" y="15316200"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線接點 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2124076" y="15297150"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線接點 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1495425" y="15697200"/>
-          <a:ext cx="657225" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線接點 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2457450" y="15297150"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線接點 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2428875" y="15697200"/>
-          <a:ext cx="609600" cy="200026"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>105555</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>86128</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219701</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>143314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="圖片 62">
+        <xdr:cNvPr id="89" name="圖片 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF7C729-53F2-4868-A5B4-84EFF2A4C47D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15168C37-CA98-487B-AF77-64F012BB7EB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3169,8 +4515,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="16897350"/>
-          <a:ext cx="5591955" cy="2886478"/>
+          <a:off x="609600" y="21897975"/>
+          <a:ext cx="4486901" cy="3143689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3445,10 +4791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3867,6 +5213,26 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/三下/演算法/A6409001_邱郁涵_HW06.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW06.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t xml:space="preserve">A= </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,118 @@
   </si>
   <si>
     <t>c, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b, e are possible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a, c, d are impossible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by backtracking yields the following state-space tree:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here are the grapth and state-space tree for solving the 3-coloring problem for it using backtracking:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,6 +641,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,12 +654,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1959,21 +2071,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57668</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>190862</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495709</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>19220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="圖片 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00C0E6B-6F7B-4524-86D8-71D42CC17FF7}"/>
+        <xdr:cNvPr id="45" name="圖片 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7486E9-7B4E-4475-9FCE-7F913B017E4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,8 +2107,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="24498300"/>
-          <a:ext cx="3715268" cy="2591162"/>
+          <a:off x="609600" y="30299025"/>
+          <a:ext cx="2934109" cy="1219370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2009,21 +2121,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438637</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>47995</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219871</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>95738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="圖片 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363551D-464B-4434-9262-C9056E0B30D9}"/>
+        <xdr:cNvPr id="47" name="圖片 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E97123-BB19-48CD-BDA2-BB72CEBD5F9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,8 +2157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="27298650"/>
-          <a:ext cx="3486637" cy="2648320"/>
+          <a:off x="609600" y="31499175"/>
+          <a:ext cx="5706271" cy="3496163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2059,21 +2171,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495709</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>19220</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581787</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>48134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="圖片 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7486E9-7B4E-4475-9FCE-7F913B017E4D}"/>
+        <xdr:cNvPr id="49" name="圖片 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19840D48-D091-44F8-9F1D-2A5972C9A76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,8 +2207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="30299025"/>
-          <a:ext cx="2934109" cy="1219370"/>
+          <a:off x="609600" y="35099625"/>
+          <a:ext cx="5458587" cy="3648584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2105,25 +2217,875 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線接點 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914401" y="12506325"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線接點 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2152651" y="12506325"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線接點 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="12487275"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線接點 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F8263-5AA5-425B-9AAF-364BDC8D4D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1504950" y="12506325"/>
+          <a:ext cx="657225" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線接點 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="923925" y="12915900"/>
+          <a:ext cx="581025" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線接點 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1504950" y="12906375"/>
+          <a:ext cx="657225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="12487275"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線接點 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1495425" y="14106525"/>
+          <a:ext cx="628650" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7726-9B1D-4FD6-BEC0-8E29BBA9CEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="14001750"/>
+          <a:ext cx="619125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線接點 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="14087475"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線接點 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="923925" y="12915900"/>
+          <a:ext cx="581025" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線接點 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1504950" y="15306675"/>
+          <a:ext cx="628650" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219871</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>95738</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線接點 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="923926" y="15316200"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線接點 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2124076" y="15297150"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線接點 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1495425" y="15697200"/>
+          <a:ext cx="657225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線接點 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="15297150"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線接點 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2428875" y="15697200"/>
+          <a:ext cx="609600" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105555</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>86128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="圖片 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E97123-BB19-48CD-BDA2-BB72CEBD5F9E}"/>
+        <xdr:cNvPr id="63" name="圖片 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF7C729-53F2-4868-A5B4-84EFF2A4C47D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,956 +3095,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="31499175"/>
-          <a:ext cx="5706271" cy="3496163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>291</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581787</xdr:colOff>
-      <xdr:row>309</xdr:row>
-      <xdr:rowOff>48134</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="圖片 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19840D48-D091-44F8-9F1D-2A5972C9A76B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="35099625"/>
-          <a:ext cx="5458587" cy="3648584"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線接點 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="914401" y="12506325"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線接點 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2152651" y="12506325"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線接點 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="12487275"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線接點 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F8263-5AA5-425B-9AAF-364BDC8D4D3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1504950" y="12506325"/>
-          <a:ext cx="657225" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線接點 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="923925" y="12915900"/>
-          <a:ext cx="581025" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線接點 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1504950" y="12906375"/>
-          <a:ext cx="657225" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線接點 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="12487275"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線接點 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1495425" y="14106525"/>
-          <a:ext cx="628650" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線接點 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7726-9B1D-4FD6-BEC0-8E29BBA9CEC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1219200" y="14001750"/>
-          <a:ext cx="619125" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線接點 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="14087475"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線接點 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="923925" y="12915900"/>
-          <a:ext cx="581025" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線接點 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1504950" y="15306675"/>
-          <a:ext cx="628650" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線接點 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="923926" y="15316200"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線接點 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2124076" y="15297150"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線接點 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1495425" y="15697200"/>
-          <a:ext cx="657225" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線接點 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2457450" y="15297150"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線接點 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2428875" y="15697200"/>
-          <a:ext cx="609600" cy="200026"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>105555</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>86128</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="圖片 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF7C729-53F2-4868-A5B4-84EFF2A4C47D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4452,7 +4464,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4494,6 +4506,906 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15168C37-CA98-487B-AF77-64F012BB7EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21897975"/>
+          <a:ext cx="4486901" cy="3143689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57668</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>190862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="圖片 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00C0E6B-6F7B-4524-86D8-71D42CC17FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26098500"/>
+          <a:ext cx="3715268" cy="2591162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線接點 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3962400" y="29508450"/>
+          <a:ext cx="609601" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線接點 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="30108525"/>
+          <a:ext cx="3019425" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線接點 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3305175" y="30099000"/>
+          <a:ext cx="666750" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線接點 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2743200" y="30699075"/>
+          <a:ext cx="590550" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線接點 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2095500" y="31299150"/>
+          <a:ext cx="590550" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線接點 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="30708600"/>
+          <a:ext cx="1228725" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線接點 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="31299150"/>
+          <a:ext cx="695325" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線接點 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="31308675"/>
+          <a:ext cx="1200150" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線接點 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4514850" y="31289625"/>
+          <a:ext cx="104775" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線接點 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3333750" y="31908750"/>
+          <a:ext cx="28575" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線接點 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="31908750"/>
+          <a:ext cx="1" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線接點 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7029451" y="30699075"/>
+          <a:ext cx="9524" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直線接點 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="31289625"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線接點 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="31880175"/>
+          <a:ext cx="9526" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線接點 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7019926" y="32508825"/>
+          <a:ext cx="9524" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線接點 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7019926" y="33108900"/>
+          <a:ext cx="9524" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438637</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>47995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="圖片 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363551D-464B-4434-9262-C9056E0B30D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4515,14 +5427,564 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="21897975"/>
-          <a:ext cx="4486901" cy="3143689"/>
+          <a:off x="609600" y="34099500"/>
+          <a:ext cx="3486637" cy="2648320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線接點 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2724151" y="38119050"/>
+          <a:ext cx="1238249" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線接點 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="38100000"/>
+          <a:ext cx="19050" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線接點 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3371850" y="38890575"/>
+          <a:ext cx="590550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線接點 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3943350" y="38919151"/>
+          <a:ext cx="657225" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線接點 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3933826" y="38909625"/>
+          <a:ext cx="1885949" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314327</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線接點 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5800727" y="39519227"/>
+          <a:ext cx="657223" cy="190498"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直線接點 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5162550" y="39509701"/>
+          <a:ext cx="628651" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線接點 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6400800" y="40109775"/>
+          <a:ext cx="9525" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直線接點 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6419850" y="40700325"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線接點 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6438900" y="40738425"/>
+          <a:ext cx="1209675" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直線接點 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6391276" y="40719375"/>
+          <a:ext cx="2466974" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4791,10 +6253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N197" sqref="N197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5074,20 +6536,20 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
@@ -5216,23 +6678,283 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H146" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G149" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G150" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F152" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F153" s="5">
+        <v>2</v>
+      </c>
+      <c r="L153" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E155" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L155" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E156" s="5">
+        <v>3</v>
+      </c>
+      <c r="H156" s="5">
+        <v>7</v>
+      </c>
+      <c r="L156" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D158" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D159" s="5">
+        <v>4</v>
+      </c>
+      <c r="F159" s="5">
+        <v>5</v>
+      </c>
+      <c r="H159" s="5">
+        <v>8</v>
+      </c>
+      <c r="J159" s="5">
+        <v>9</v>
+      </c>
+      <c r="L159" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F161" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J161" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L161" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F162" s="5">
+        <v>6</v>
+      </c>
+      <c r="J162" s="5">
+        <v>10</v>
+      </c>
+      <c r="L162" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L164" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L165" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L167" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L168" s="5"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G189" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E193" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E194" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G194" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F196" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J196" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F197" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J197" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I199" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K199" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="200" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I200" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K200" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K202" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L202" s="6"/>
+    </row>
+    <row r="203" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K203" s="5">
+        <v>1</v>
+      </c>
+      <c r="L203" s="6"/>
+    </row>
+    <row r="205" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K205" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M205" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O205" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="206" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K206" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O206" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/三下/演算法/A6409001_邱郁涵_HW06.xlsx
+++ b/三下/演算法/A6409001_邱郁涵_HW06.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t xml:space="preserve">A= </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,14 @@
     <t>2x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -622,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,6 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2071,21 +2080,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495709</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>19220</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219871</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>95738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="圖片 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7486E9-7B4E-4475-9FCE-7F913B017E4D}"/>
+        <xdr:cNvPr id="47" name="圖片 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E97123-BB19-48CD-BDA2-BB72CEBD5F9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,8 +2116,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="30299025"/>
-          <a:ext cx="2934109" cy="1219370"/>
+          <a:off x="609600" y="31499175"/>
+          <a:ext cx="5706271" cy="3496163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2121,21 +2130,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219871</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>95738</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581787</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>48134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="圖片 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E97123-BB19-48CD-BDA2-BB72CEBD5F9E}"/>
+        <xdr:cNvPr id="49" name="圖片 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19840D48-D091-44F8-9F1D-2A5972C9A76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,8 +2166,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="31499175"/>
-          <a:ext cx="5706271" cy="3496163"/>
+          <a:off x="609600" y="35099625"/>
+          <a:ext cx="5458587" cy="3648584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2167,25 +2176,875 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線接點 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914401" y="12506325"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線接點 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2152651" y="12506325"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線接點 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="12487275"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線接點 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F8263-5AA5-425B-9AAF-364BDC8D4D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1504950" y="12506325"/>
+          <a:ext cx="657225" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線接點 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="923925" y="12915900"/>
+          <a:ext cx="581025" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線接點 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1504950" y="12906375"/>
+          <a:ext cx="657225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="12487275"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線接點 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1495425" y="14106525"/>
+          <a:ext cx="628650" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7726-9B1D-4FD6-BEC0-8E29BBA9CEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="14001750"/>
+          <a:ext cx="619125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線接點 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="14087475"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線接點 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="923925" y="12915900"/>
+          <a:ext cx="581025" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線接點 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1504950" y="15306675"/>
+          <a:ext cx="628650" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線接點 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="923926" y="15316200"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線接點 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2124076" y="15297150"/>
+          <a:ext cx="9524" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線接點 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1495425" y="15697200"/>
+          <a:ext cx="657225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線接點 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="15297150"/>
+          <a:ext cx="590550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線接點 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2428875" y="15697200"/>
+          <a:ext cx="609600" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>581787</xdr:colOff>
-      <xdr:row>309</xdr:row>
-      <xdr:rowOff>48134</xdr:rowOff>
+      <xdr:colOff>105555</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>86128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="圖片 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19840D48-D091-44F8-9F1D-2A5972C9A76B}"/>
+        <xdr:cNvPr id="63" name="圖片 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF7C729-53F2-4868-A5B4-84EFF2A4C47D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,906 +3054,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="35099625"/>
-          <a:ext cx="5458587" cy="3648584"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線接點 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="914401" y="12506325"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線接點 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2152651" y="12506325"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線接點 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="12487275"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線接點 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F8263-5AA5-425B-9AAF-364BDC8D4D3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1504950" y="12506325"/>
-          <a:ext cx="657225" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線接點 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="923925" y="12915900"/>
-          <a:ext cx="581025" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線接點 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1504950" y="12906375"/>
-          <a:ext cx="657225" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線接點 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="12487275"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線接點 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1495425" y="14106525"/>
-          <a:ext cx="628650" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線接點 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7726-9B1D-4FD6-BEC0-8E29BBA9CEC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1219200" y="14001750"/>
-          <a:ext cx="619125" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線接點 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="904875" y="14087475"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線接點 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74D9F39-0255-44E5-8976-26F2A9AF40E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="923925" y="12915900"/>
-          <a:ext cx="581025" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線接點 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1504950" y="15306675"/>
-          <a:ext cx="628650" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線接點 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0291E-1B88-4519-9CAD-68FC46EF915B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="923926" y="15316200"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線接點 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2124076" y="15297150"/>
-          <a:ext cx="9524" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線接點 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489661D5-A71C-4BC8-9FF0-B98640D00474}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1495425" y="15697200"/>
-          <a:ext cx="657225" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線接點 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2457450" y="15297150"/>
-          <a:ext cx="590550" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線接點 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CB395F-329D-483E-828E-79961D122E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2428875" y="15697200"/>
-          <a:ext cx="609600" cy="200026"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>105555</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>86128</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="圖片 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF7C729-53F2-4868-A5B4-84EFF2A4C47D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4464,7 +4423,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4506,6 +4465,56 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15168C37-CA98-487B-AF77-64F012BB7EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21897975"/>
+          <a:ext cx="4486901" cy="3143689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57668</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>190862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="圖片 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00C0E6B-6F7B-4524-86D8-71D42CC17FF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4527,35 +4536,835 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="21897975"/>
-          <a:ext cx="4486901" cy="3143689"/>
+          <a:off x="609600" y="26098500"/>
+          <a:ext cx="3715268" cy="2591162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線接點 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3962400" y="29508450"/>
+          <a:ext cx="609601" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線接點 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="30108525"/>
+          <a:ext cx="3019425" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線接點 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3305175" y="30099000"/>
+          <a:ext cx="666750" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線接點 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2743200" y="30699075"/>
+          <a:ext cx="590550" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線接點 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2095500" y="31299150"/>
+          <a:ext cx="590550" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線接點 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="30708600"/>
+          <a:ext cx="1228725" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線接點 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="31299150"/>
+          <a:ext cx="695325" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線接點 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="31308675"/>
+          <a:ext cx="1200150" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線接點 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4514850" y="31289625"/>
+          <a:ext cx="104775" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線接點 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3333750" y="31908750"/>
+          <a:ext cx="28575" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線接點 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="31908750"/>
+          <a:ext cx="1" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線接點 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7029451" y="30699075"/>
+          <a:ext cx="9524" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直線接點 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="31289625"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線接點 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="31880175"/>
+          <a:ext cx="9526" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線接點 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7019926" y="32508825"/>
+          <a:ext cx="9524" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線接點 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7019926" y="33108900"/>
+          <a:ext cx="9524" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57668</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>190862</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438637</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>47995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="圖片 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00C0E6B-6F7B-4524-86D8-71D42CC17FF7}"/>
+        <xdr:cNvPr id="109" name="圖片 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363551D-464B-4434-9262-C9056E0B30D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4577,8 +5386,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="26098500"/>
-          <a:ext cx="3715268" cy="2591162"/>
+          <a:off x="609600" y="34099500"/>
+          <a:ext cx="3486637" cy="2648320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4589,20 +5398,370 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線接點 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2724151" y="38119050"/>
+          <a:ext cx="1238249" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線接點 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="38100000"/>
+          <a:ext cx="19050" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線接點 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3371850" y="38890575"/>
+          <a:ext cx="590550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線接點 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3943350" y="38919151"/>
+          <a:ext cx="657225" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線接點 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3933826" y="38909625"/>
+          <a:ext cx="1885949" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314327</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線接點 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5800727" y="39519227"/>
+          <a:ext cx="657223" cy="190498"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直線接點 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5162550" y="39509701"/>
+          <a:ext cx="628651" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線接點 82">
+        <xdr:cNvPr id="130" name="直線接點 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -4612,47 +5771,47 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3962400" y="29508450"/>
-          <a:ext cx="609601" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線接點 83">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6400800" y="40109775"/>
+          <a:ext cx="9525" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直線接點 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -4662,47 +5821,47 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3971925" y="30108525"/>
-          <a:ext cx="3019425" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>150</xdr:row>
+        <a:xfrm flipV="1">
+          <a:off x="6419850" y="40700325"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="直線接點 89">
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線接點 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -4712,47 +5871,47 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3305175" y="30099000"/>
-          <a:ext cx="666750" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>153</xdr:row>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6438900" y="40738425"/>
+          <a:ext cx="1209675" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直線接點 90">
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直線接點 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -4762,609 +5921,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2743200" y="30699075"/>
-          <a:ext cx="590550" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線接點 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2095500" y="31299150"/>
-          <a:ext cx="590550" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="直線接點 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3305175" y="30708600"/>
-          <a:ext cx="1228725" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="直線接點 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2647950" y="31299150"/>
-          <a:ext cx="695325" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直線接點 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4629150" y="31308675"/>
-          <a:ext cx="1200150" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="直線接點 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4514850" y="31289625"/>
-          <a:ext cx="104775" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線接點 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3333750" y="31908750"/>
-          <a:ext cx="28575" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="直線接點 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5781675" y="31908750"/>
-          <a:ext cx="1" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="直線接點 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7029451" y="30699075"/>
-          <a:ext cx="9524" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="直線接點 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7010400" y="31289625"/>
-          <a:ext cx="0" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="直線接點 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7000875" y="31880175"/>
-          <a:ext cx="9526" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="直線接點 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7019926" y="32508825"/>
-          <a:ext cx="9524" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="直線接點 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7019926" y="33108900"/>
-          <a:ext cx="9524" cy="190500"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6391276" y="40719375"/>
+          <a:ext cx="2466974" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5391,21 +5950,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438637</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>47995</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495709</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>19220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="圖片 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363551D-464B-4434-9262-C9056E0B30D9}"/>
+        <xdr:cNvPr id="105" name="圖片 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7486E9-7B4E-4475-9FCE-7F913B017E4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5427,8 +5986,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="34099500"/>
-          <a:ext cx="3486637" cy="2648320"/>
+          <a:off x="609600" y="41700450"/>
+          <a:ext cx="2934109" cy="1219370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5439,20 +5998,670 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線接點 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3648075" y="43919775"/>
+          <a:ext cx="4524375" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線接點 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1190625" y="44291250"/>
+          <a:ext cx="2400300" cy="228602"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線接點 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2419350" y="44291250"/>
+          <a:ext cx="1143000" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直線接點 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3562350" y="44262675"/>
+          <a:ext cx="47626" cy="247653"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線接點 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1123950" y="44757976"/>
+          <a:ext cx="9525" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線接點 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1152526" y="44738926"/>
+          <a:ext cx="581024" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直線接點 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1743076" y="45310425"/>
+          <a:ext cx="28574" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線接點 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1143001" y="45281850"/>
+          <a:ext cx="28574" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線接點 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2362200" y="44777026"/>
+          <a:ext cx="9525" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線接點 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2362201" y="44757976"/>
+          <a:ext cx="609599" cy="352424"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直線接點 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2867025" y="45300900"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直線接點 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2352675" y="45319950"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="直線接點 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3552825" y="44748451"/>
+          <a:ext cx="9525" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線接點 109">
+        <xdr:cNvPr id="137" name="直線接點 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -5462,9 +6671,59 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2724151" y="38119050"/>
-          <a:ext cx="1238249" cy="371475"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3562351" y="44748451"/>
+          <a:ext cx="638174" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直線接點 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3533775" y="45310425"/>
+          <a:ext cx="9525" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5490,19 +6749,1169 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直線接點 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4114800" y="45281850"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直線接點 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6686550" y="43910251"/>
+          <a:ext cx="1476375" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直線接點 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5381625" y="44310300"/>
+          <a:ext cx="971550" cy="180977"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直線接點 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6429375" y="44310300"/>
+          <a:ext cx="1409700" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="直線接點 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6391275" y="44300776"/>
+          <a:ext cx="228600" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線接點 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4819650" y="44729401"/>
+          <a:ext cx="619125" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直線接點 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5438775" y="44710351"/>
+          <a:ext cx="0" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="直線接點 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6648450" y="44738926"/>
+          <a:ext cx="0" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="直線接點 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7867650" y="44700826"/>
+          <a:ext cx="0" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="直線接點 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5857875" y="44729402"/>
+          <a:ext cx="800100" cy="371473"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="直線接點 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7086600" y="44700827"/>
+          <a:ext cx="800100" cy="380998"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="直線接點 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4781550" y="45300900"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="直線接點 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5410200" y="45281850"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="直線接點 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5991225" y="45310425"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="直線接點 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6619875" y="45291375"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="直線接點 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7239000" y="45300900"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="直線接點 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7867650" y="45281850"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="直線接點 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8181976" y="43919776"/>
+          <a:ext cx="2057399" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="直線接點 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8143876" y="43910251"/>
+          <a:ext cx="5543549" cy="180974"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="直線接點 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9144000" y="44310300"/>
+          <a:ext cx="971550" cy="180977"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="直線接點 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12763500" y="44310300"/>
+          <a:ext cx="971550" cy="180977"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="直線接點 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10115550" y="44310301"/>
+          <a:ext cx="228600" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="直線接點 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13706475" y="44291251"/>
+          <a:ext cx="228600" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="直線接點 111">
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直線接點 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -5512,47 +7921,547 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3962400" y="38100000"/>
-          <a:ext cx="19050" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>193</xdr:row>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10125075" y="44310300"/>
+          <a:ext cx="1409700" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="直線接點 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13725525" y="44300775"/>
+          <a:ext cx="1409700" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="直線接點 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8458200" y="44729400"/>
+          <a:ext cx="609600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="直線接點 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9658350" y="44700825"/>
+          <a:ext cx="609600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="直線接點 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10848975" y="44691300"/>
+          <a:ext cx="609600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="直線接點 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12115800" y="44729400"/>
+          <a:ext cx="609600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直線接點 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13373100" y="44719875"/>
+          <a:ext cx="609600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直線接點 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14563725" y="44719875"/>
+          <a:ext cx="609600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直線接點 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9067800" y="44738926"/>
+          <a:ext cx="0" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="直線接點 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10267950" y="44691301"/>
+          <a:ext cx="0" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直線接點 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11458575" y="44691301"/>
+          <a:ext cx="0" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="直線接點 114">
+        <xdr:cNvPr id="193" name="直線接點 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -5563,46 +8472,146 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3371850" y="38890575"/>
-          <a:ext cx="590550" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>195</xdr:row>
+          <a:off x="12734925" y="44719876"/>
+          <a:ext cx="0" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直線接點 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13992225" y="44710351"/>
+          <a:ext cx="0" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="直線接點 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15211425" y="44748451"/>
+          <a:ext cx="0" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直線接點 117">
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="直線接點 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -5612,47 +8621,197 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3943350" y="38919151"/>
-          <a:ext cx="657225" cy="190499"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>194</xdr:row>
+        <a:xfrm flipV="1">
+          <a:off x="8467725" y="45310425"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="直線接點 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9077325" y="45300900"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="直線接點 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9686925" y="45310425"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="直線接點 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10315575" y="45300900"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直線接點 120">
+        <xdr:cNvPr id="200" name="直線接點 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -5662,47 +8821,297 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3933826" y="38909625"/>
-          <a:ext cx="1885949" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314327</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>19052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>198</xdr:row>
+        <a:xfrm flipV="1">
+          <a:off x="10915650" y="45281850"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="201" name="直線接點 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11525250" y="45319950"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="202" name="直線接點 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12144375" y="45300900"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="203" name="直線接點 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12734925" y="45291375"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="直線接點 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13344525" y="45291375"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="直線接點 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13954125" y="45300900"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線接點 123">
+        <xdr:cNvPr id="206" name="直線接點 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -5712,47 +9121,47 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5800727" y="39519227"/>
-          <a:ext cx="657223" cy="190498"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="直線接點 126">
+        <a:xfrm flipV="1">
+          <a:off x="14563725" y="45281850"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="直線接點 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
@@ -5763,208 +9172,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5162550" y="39509701"/>
-          <a:ext cx="628651" cy="200024"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="直線接點 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6400800" y="40109775"/>
-          <a:ext cx="9525" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="直線接點 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6419850" y="40700325"/>
-          <a:ext cx="0" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直線接點 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6438900" y="40738425"/>
-          <a:ext cx="1209675" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="139" name="直線接點 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF45EBA-2DBA-46EC-BED8-E3338D320496}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6391276" y="40719375"/>
-          <a:ext cx="2466974" cy="180975"/>
+          <a:off x="15182850" y="45272325"/>
+          <a:ext cx="9525" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6253,10 +9462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R206"/>
+  <dimension ref="A1:Y229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N197" sqref="N197"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6869,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E193" s="5" t="s">
         <v>66</v>
       </c>
@@ -6877,7 +10086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="194" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E194" s="5" t="s">
         <v>71</v>
       </c>
@@ -6885,7 +10094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F196" s="5" t="s">
         <v>62</v>
       </c>
@@ -6896,7 +10105,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="197" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F197" s="5" t="s">
         <v>72</v>
       </c>
@@ -6907,7 +10116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I199" s="5" t="s">
         <v>69</v>
       </c>
@@ -6915,7 +10124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="200" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I200" s="5" t="s">
         <v>71</v>
       </c>
@@ -6923,19 +10132,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K202" s="5" t="s">
         <v>70</v>
       </c>
       <c r="L202" s="6"/>
     </row>
-    <row r="203" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K203" s="5">
         <v>1</v>
       </c>
       <c r="L203" s="6"/>
     </row>
-    <row r="205" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K205" s="5" t="s">
         <v>53</v>
       </c>
@@ -6946,7 +10155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="206" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K206" s="5" t="s">
         <v>71</v>
       </c>
@@ -6955,6 +10164,234 @@
       </c>
       <c r="O206" s="5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="N219" s="13"/>
+    </row>
+    <row r="221" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F221" s="4">
+        <v>1</v>
+      </c>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="4">
+        <v>2</v>
+      </c>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4">
+        <v>3</v>
+      </c>
+      <c r="R221" s="4"/>
+      <c r="S221" s="4"/>
+      <c r="T221" s="4"/>
+      <c r="U221" s="4"/>
+      <c r="V221" s="4"/>
+      <c r="W221" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+      <c r="F223">
+        <v>4</v>
+      </c>
+      <c r="H223" t="s">
+        <v>76</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>75</v>
+      </c>
+      <c r="K223">
+        <v>3</v>
+      </c>
+      <c r="M223">
+        <v>4</v>
+      </c>
+      <c r="O223">
+        <v>1</v>
+      </c>
+      <c r="Q223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>4</v>
+      </c>
+      <c r="U223">
+        <v>1</v>
+      </c>
+      <c r="W223">
+        <v>2</v>
+      </c>
+      <c r="Y223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B226" s="4">
+        <v>3</v>
+      </c>
+      <c r="C226" s="4">
+        <v>4</v>
+      </c>
+      <c r="D226" s="4">
+        <v>2</v>
+      </c>
+      <c r="E226" s="4">
+        <v>4</v>
+      </c>
+      <c r="F226" s="4">
+        <v>2</v>
+      </c>
+      <c r="G226" s="4">
+        <v>3</v>
+      </c>
+      <c r="H226" s="4">
+        <v>3</v>
+      </c>
+      <c r="I226" s="4">
+        <v>4</v>
+      </c>
+      <c r="J226" s="4">
+        <v>1</v>
+      </c>
+      <c r="K226" s="4">
+        <v>4</v>
+      </c>
+      <c r="L226" s="4">
+        <v>1</v>
+      </c>
+      <c r="M226" s="4">
+        <v>3</v>
+      </c>
+      <c r="N226" s="4">
+        <v>2</v>
+      </c>
+      <c r="O226" s="4">
+        <v>4</v>
+      </c>
+      <c r="P226" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q226" s="4">
+        <v>4</v>
+      </c>
+      <c r="R226" s="4">
+        <v>1</v>
+      </c>
+      <c r="S226" s="4">
+        <v>2</v>
+      </c>
+      <c r="T226" s="4">
+        <v>2</v>
+      </c>
+      <c r="U226" s="4">
+        <v>3</v>
+      </c>
+      <c r="V226" s="4">
+        <v>1</v>
+      </c>
+      <c r="W226" s="4">
+        <v>3</v>
+      </c>
+      <c r="X226" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y226" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B229" s="4">
+        <v>4</v>
+      </c>
+      <c r="C229" s="4">
+        <v>3</v>
+      </c>
+      <c r="D229" s="4">
+        <v>4</v>
+      </c>
+      <c r="E229" s="4">
+        <v>2</v>
+      </c>
+      <c r="F229" s="4">
+        <v>3</v>
+      </c>
+      <c r="G229" s="4">
+        <v>2</v>
+      </c>
+      <c r="H229" s="4">
+        <v>4</v>
+      </c>
+      <c r="I229" s="4">
+        <v>3</v>
+      </c>
+      <c r="J229" s="4">
+        <v>4</v>
+      </c>
+      <c r="K229" s="4">
+        <v>1</v>
+      </c>
+      <c r="L229" s="4">
+        <v>3</v>
+      </c>
+      <c r="M229" s="4">
+        <v>1</v>
+      </c>
+      <c r="N229" s="4">
+        <v>4</v>
+      </c>
+      <c r="O229" s="4">
+        <v>2</v>
+      </c>
+      <c r="P229" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q229" s="4">
+        <v>1</v>
+      </c>
+      <c r="R229" s="4">
+        <v>2</v>
+      </c>
+      <c r="S229" s="4">
+        <v>1</v>
+      </c>
+      <c r="T229" s="4">
+        <v>3</v>
+      </c>
+      <c r="U229" s="4">
+        <v>2</v>
+      </c>
+      <c r="V229" s="4">
+        <v>3</v>
+      </c>
+      <c r="W229" s="4">
+        <v>1</v>
+      </c>
+      <c r="X229" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y229" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
